--- a/history.xlsx
+++ b/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>SECTION</t>
   </si>
@@ -61,7 +61,28 @@
     <t>Nimitha</t>
   </si>
   <si>
-    <t>Total = 2</t>
+    <t>Edible</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>7935</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>Total = 7938</t>
   </si>
 </sst>
 </file>
@@ -393,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,8 +490,54 @@
       </c>
     </row>
     <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
